--- a/Planillas/ColumnaGIVcAng.xlsx
+++ b/Planillas/ColumnaGIVcAng.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andres\Sigma\Planillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3CB87-4FCE-4716-9EDD-8E09AE778313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91770B98-2467-4A0F-BA48-0667A5834522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D20F7401-9708-4DE4-B85C-E994578A784B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D20F7401-9708-4DE4-B85C-E994578A784B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Angulares" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Grupo IV" sheetId="3" r:id="rId1"/>
+    <sheet name="Angulares" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="db">Angulares!$A$5:$R$30</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="171">
   <si>
     <t>Ángulo</t>
   </si>
@@ -197,9 +197,6 @@
     <t>cm³</t>
   </si>
   <si>
-    <t>ACERO F-24</t>
-  </si>
-  <si>
     <t>Fy</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>Resistencia requerida</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pu </t>
   </si>
   <si>
@@ -236,35 +230,6 @@
     <t>Ix = Iy</t>
   </si>
   <si>
-    <r>
-      <t>cm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>x-x</t>
-    </r>
-  </si>
-  <si>
     <t>kx</t>
   </si>
   <si>
@@ -274,20 +239,6 @@
     <t>rx = ry</t>
   </si>
   <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>y-y</t>
-    </r>
-  </si>
-  <si>
     <t>ky</t>
   </si>
   <si>
@@ -300,12 +251,6 @@
     <t>rv</t>
   </si>
   <si>
-    <t>φ</t>
-  </si>
-  <si>
-    <t>SECCION COMPUESTA</t>
-  </si>
-  <si>
     <t>Ix</t>
   </si>
   <si>
@@ -318,9 +263,6 @@
     <t>ry</t>
   </si>
   <si>
-    <t>COMPACIDAD</t>
-  </si>
-  <si>
     <t>b/t</t>
   </si>
   <si>
@@ -333,116 +275,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>Verificación a Tracción</t>
-  </si>
-  <si>
-    <t>Rn</t>
-  </si>
-  <si>
-    <t>Rd</t>
-  </si>
-  <si>
-    <t>Soldadura a compresión</t>
-  </si>
-  <si>
-    <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EEX</t>
-    </r>
-  </si>
-  <si>
-    <t>Ancho de Forro bc</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>0,02 x φc X Pn</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>V x a / h</t>
-  </si>
-  <si>
-    <t>Wmín</t>
-  </si>
-  <si>
-    <t>ver tabla</t>
-  </si>
-  <si>
-    <t>Wdisp</t>
-  </si>
-  <si>
-    <t>Wadop</t>
-  </si>
-  <si>
-    <t>Wmáx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lmín </t>
-  </si>
-  <si>
-    <t>4 x Wadop</t>
-  </si>
-  <si>
-    <t>eg</t>
-  </si>
-  <si>
-    <t>Aw</t>
-  </si>
-  <si>
-    <t>Fw</t>
-  </si>
-  <si>
-    <t>0.6 x FEXX</t>
-  </si>
-  <si>
-    <t>corte en el area efectiva</t>
-  </si>
-  <si>
-    <t>Ltotal</t>
-  </si>
-  <si>
-    <t>longitud total con T</t>
-  </si>
-  <si>
-    <t>Lcor</t>
-  </si>
-  <si>
-    <t>Cordones - No modificar</t>
-  </si>
-  <si>
-    <t>Ladop</t>
-  </si>
-  <si>
-    <t>Verficicación a Flexión</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Md</t>
-  </si>
-  <si>
-    <t>Flexotraccion</t>
-  </si>
-  <si>
-    <t>pu/pd</t>
-  </si>
-  <si>
-    <t>Flexocompresion</t>
-  </si>
-  <si>
     <t>L 1/2 x 1/8</t>
   </si>
   <si>
@@ -519,18 +351,6 @@
   </si>
   <si>
     <t>L 4 x 1/2</t>
-  </si>
-  <si>
-    <t>Cálculo de Columna Grupo IV - Compresion</t>
-  </si>
-  <si>
-    <t>Verifiación a Compresion - Eje Inmaterial ( x-x )</t>
-  </si>
-  <si>
-    <t>PERFIL CORDONES</t>
-  </si>
-  <si>
-    <t>PERFIL DIAGONALES</t>
   </si>
   <si>
     <t>hx</t>
@@ -773,9 +593,6 @@
     </r>
   </si>
   <si>
-    <t>Resistencia Local de la Barra a Compresión</t>
-  </si>
-  <si>
     <t>Vux</t>
   </si>
   <si>
@@ -876,22 +693,6 @@
   </si>
   <si>
     <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u1</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>φ</t>
     </r>
     <r>
@@ -906,13 +707,169 @@
     </r>
   </si>
   <si>
+    <t>Exp. A-E.4.1</t>
+  </si>
+  <si>
+    <t>Exp. A-E.4.2</t>
+  </si>
+  <si>
+    <t>Exp. A-E.4.3</t>
+  </si>
+  <si>
+    <t>Fig. A-E.4.2</t>
+  </si>
+  <si>
+    <t>Fig. A-E.4.3</t>
+  </si>
+  <si>
+    <t>Art. A-E.4.2.1 (a)</t>
+  </si>
+  <si>
+    <t>Art. A-E.4.2.1 (b)</t>
+  </si>
+  <si>
+    <t>Exp. A-E.4.4</t>
+  </si>
+  <si>
+    <t>Fig. C.2.4</t>
+  </si>
+  <si>
+    <t>Art. E.2.2/3</t>
+  </si>
+  <si>
+    <t>Art. E.2.1</t>
+  </si>
+  <si>
+    <t>sx</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Solicitaciones</t>
+  </si>
+  <si>
+    <t>Lx</t>
+  </si>
+  <si>
+    <t>Ly</t>
+  </si>
+  <si>
+    <t>Lpx</t>
+  </si>
+  <si>
+    <t>Lpy</t>
+  </si>
+  <si>
+    <t>Características Geométricas</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>kx(celosía)</t>
+  </si>
+  <si>
+    <t>ky(celosía)</t>
+  </si>
+  <si>
+    <t>Verificaciones</t>
+  </si>
+  <si>
+    <t>Resistencia a compresión del cordón</t>
+  </si>
+  <si>
+    <t>Resistencia a compresión de la celosía en x</t>
+  </si>
+  <si>
+    <t>Resistencia a compresión de la celosía en y</t>
+  </si>
+  <si>
+    <t>Resistencia a tracción del cordón</t>
+  </si>
+  <si>
+    <t>Esbeltez local menor a la global en x</t>
+  </si>
+  <si>
+    <t>Esbeltez local menor a la global en y</t>
+  </si>
+  <si>
+    <t>Cordones</t>
+  </si>
+  <si>
+    <t>Celosía</t>
+  </si>
+  <si>
+    <t>Características de la Sección</t>
+  </si>
+  <si>
+    <t>Diagonales</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d1</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>T</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="11"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -922,60 +879,66 @@
     </r>
   </si>
   <si>
-    <t>Exp. A-E.4.1</t>
-  </si>
-  <si>
-    <t>Exp. A-E.4.2</t>
-  </si>
-  <si>
-    <t>Exp. A-E.4.3</t>
-  </si>
-  <si>
-    <t>Fig. A-E.4.2</t>
-  </si>
-  <si>
-    <t>Fig. A-E.4.3</t>
-  </si>
-  <si>
-    <t>Art. A-E.4.2.1 (a)</t>
-  </si>
-  <si>
-    <t>Art. A-E.4.2.1 (b)</t>
-  </si>
-  <si>
-    <t>Exp. A-E.4.4</t>
-  </si>
-  <si>
-    <t>Fig. C.2.4</t>
-  </si>
-  <si>
-    <t>Tabla B.5.1</t>
-  </si>
-  <si>
-    <t>Art. E.2.2/3</t>
-  </si>
-  <si>
-    <t>Art. E.2.1</t>
-  </si>
-  <si>
-    <t>sx</t>
-  </si>
-  <si>
-    <t>sy</t>
+    <t>Pandeo Local</t>
+  </si>
+  <si>
+    <t>Art. B.5.1</t>
+  </si>
+  <si>
+    <t>Art. D.1</t>
+  </si>
+  <si>
+    <t>Exp. D.1.1</t>
+  </si>
+  <si>
+    <t>Lx-x</t>
+  </si>
+  <si>
+    <t>Ly-y</t>
+  </si>
+  <si>
+    <t>Perfil Cordones</t>
+  </si>
+  <si>
+    <t>Sección Compuesta</t>
+  </si>
+  <si>
+    <t>Perfil Diagonales</t>
+  </si>
+  <si>
+    <t>Acero F-24</t>
+  </si>
+  <si>
+    <t>Resistencia Requerida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cálculo de Columna Grupo IV </t>
+  </si>
+  <si>
+    <t>Verificación a Tracción del Cordón</t>
+  </si>
+  <si>
+    <t>Resistencia Local del Cordón a Compresión</t>
+  </si>
+  <si>
+    <t>Solicitaciones Requeridas en Cordones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+  <numFmts count="8">
     <numFmt numFmtId="165" formatCode="0.00\ &quot;mm&quot;"/>
-    <numFmt numFmtId="166" formatCode="0\ &quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\ &quot;mm²&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00\ &quot;cm&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;kN&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;kNm&quot;"/>
+    <numFmt numFmtId="171" formatCode="0\ &quot;MPa&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00\ &quot;MPa&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00\ &quot;cm²&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00\ &quot;cm⁴&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,25 +989,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1054,25 +998,6 @@
       <b/>
       <sz val="10"/>
       <color theme="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1090,8 +1015,71 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,19 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,8 +1104,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1206,52 +1206,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1294,16 +1248,7 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1312,11 +1257,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="double">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1326,19 +1273,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1347,18 +1281,31 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1393,215 +1340,259 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color rgb="FFFF4B4B"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1625,6 +1616,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4B4B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1637,6 +1633,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475690</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4824B4B6-450F-4647-829F-655B6D763FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="5438775"/>
+          <a:ext cx="4476190" cy="5457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132850</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>18630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831B4D2A-2FCF-420C-BAA2-E96AA9B64D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="10925175"/>
+          <a:ext cx="4000000" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676827</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3594D0C1-989D-491F-A7B0-ED57A6789816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419601" y="2143125"/>
+          <a:ext cx="1429301" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1806,99 +1939,6 @@
         <a:xfrm>
           <a:off x="11812905" y="283844"/>
           <a:ext cx="1600200" cy="885631"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>666190</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>8843</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4824B4B6-450F-4647-829F-655B6D763FB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8924925" y="4295775"/>
-          <a:ext cx="4476190" cy="5457143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180475</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>180555</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831B4D2A-2FCF-420C-BAA2-E96AA9B64D93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="9934575"/>
-          <a:ext cx="4000000" cy="3361905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2172,10 +2212,1753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A3E0BA-E691-4DB6-A97E-DB5353F080DD}">
+  <dimension ref="A1:P75"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="K1" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="94"/>
+      <c r="K2" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="82">
+        <f>L3</f>
+        <v>400</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="83">
+        <f>N3</f>
+        <v>50</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="83">
+        <f>P3</f>
+        <v>30</v>
+      </c>
+      <c r="I3" s="98"/>
+      <c r="K3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="40">
+        <v>400</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="40">
+        <v>50</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="82">
+        <f>N4</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="82">
+        <f>P4</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="98"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="40">
+        <v>100</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="82">
+        <f>L6</f>
+        <v>600</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="83">
+        <f>N6</f>
+        <v>35</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="83">
+        <f>P6</f>
+        <v>20</v>
+      </c>
+      <c r="I5" s="98"/>
+      <c r="K5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="K6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="40">
+        <v>600</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="40">
+        <v>35</v>
+      </c>
+      <c r="O6" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="K7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="63">
+        <f>L8</f>
+        <v>400</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="59">
+        <f>N8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="63">
+        <f>+D8*B8</f>
+        <v>400</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="K8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="40">
+        <v>400</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="40">
+        <v>1</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="40">
+        <f>L8*N8</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="63">
+        <f>L9</f>
+        <v>400</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="59">
+        <f>N9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="63">
+        <f>+D9*B9</f>
+        <v>400</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="40">
+        <v>400</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="40">
+        <v>1</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="40">
+        <f>L9*N9</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="K11" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="K12" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="64" t="str">
+        <f>N11</f>
+        <v>L 3 1/2 x 5/16</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="73">
+        <f>L13</f>
+        <v>25</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="K13" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" s="40">
+        <v>25</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="40">
+        <v>40</v>
+      </c>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="70">
+        <f>VLOOKUP($A$13,db,6,)</f>
+        <v>13.57</v>
+      </c>
+      <c r="C14" s="97"/>
+      <c r="D14" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="73">
+        <f>N13</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="K14" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="40">
+        <v>40</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="40">
+        <v>40</v>
+      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="71">
+        <f>VLOOKUP($A$13,db,2,)</f>
+        <v>88.9</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="73">
+        <f>E13-2*B19</f>
+        <v>20.059999999999999</v>
+      </c>
+      <c r="F15" s="98"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="K15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="M15" s="39" t="str">
+        <f>IF(B62&gt;=0.8,"k=1 Verifica","k=1,3 Verifica")</f>
+        <v>k=1,3 Verifica</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="P15" s="39" t="str">
+        <f>IF(F62&gt;=0.8,"k=1 Verifica","k=1,3 Verifica")</f>
+        <v>k=1,3 Verifica</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="71">
+        <f>VLOOKUP($A$13,db,3,)</f>
+        <v>7.9</v>
+      </c>
+      <c r="C16" s="97"/>
+      <c r="D16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="73">
+        <f>E14-2*B19</f>
+        <v>35.06</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="72">
+        <f>VLOOKUP($A$13,db,11,)</f>
+        <v>99.66</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="70">
+        <f>4*B14</f>
+        <v>54.28</v>
+      </c>
+      <c r="F17" s="66"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="K17" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="39">
+        <f>ROUND(B42/B41,2)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="73">
+        <f>VLOOKUP($A$13,db,16,)</f>
+        <v>2.71</v>
+      </c>
+      <c r="C18" s="97"/>
+      <c r="D18" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="72">
+        <f>ROUND(4*(B17+B14*(E16/2)^2),2)</f>
+        <v>17078.93</v>
+      </c>
+      <c r="F18" s="66"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="K18" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="39">
+        <f>ROUND(F42/F41,2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="73">
+        <f>VLOOKUP($A$13,db,8,)</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C19" s="97"/>
+      <c r="D19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="72">
+        <f>ROUND(4*(B17+B14*(E15/2)^2),2)</f>
+        <v>5859.26</v>
+      </c>
+      <c r="F19" s="66"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="K19" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="39">
+        <f>ROUND(B46/B53,2)</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="73">
+        <f>VLOOKUP($A$13,db,18,)</f>
+        <v>1.69</v>
+      </c>
+      <c r="C20" s="97"/>
+      <c r="D20" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="73">
+        <f>ROUND(SQRT(E18/E17),2)</f>
+        <v>17.739999999999998</v>
+      </c>
+      <c r="F20" s="66"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="K20" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="39">
+        <f>ROUND(B57/B64,2)</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="73">
+        <f>+ROUND((E19/E17)^(1/2),2)</f>
+        <v>10.39</v>
+      </c>
+      <c r="F21" s="66"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="K21" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="39">
+        <f>ROUND(F57/F64,2)</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="K22" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="39">
+        <f>ROUND(B67/B69,2)</f>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="85"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="str">
+        <f>N12</f>
+        <v>L 1 1/2 x 1/4</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="74">
+        <v>235</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="70">
+        <f>VLOOKUP($A$24,db,6,)</f>
+        <v>4.49</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="74">
+        <v>370</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="71">
+        <f>VLOOKUP($A$24,db,2,)</f>
+        <v>38.1</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="74">
+        <v>200000</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="71">
+        <f>VLOOKUP($A$24,db,3,)</f>
+        <v>6.4</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="73">
+        <f>VLOOKUP($A$24,db,18,)</f>
+        <v>0.72</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="101" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="20">
+        <f>+B15/B16</f>
+        <v>11.253164556962025</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="20">
+        <f>+B26/B27</f>
+        <v>5.953125</v>
+      </c>
+      <c r="G32" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="24">
+        <v>13.13</v>
+      </c>
+      <c r="C33" s="102"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="24">
+        <v>13.13</v>
+      </c>
+      <c r="G33" s="102"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="str">
+        <f>+IF(B32&lt;B33, "Seccion Compacta", "Sección NO Compacta")</f>
+        <v>Seccion Compacta</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="35" t="str">
+        <f>+IF(F32&lt;F33, "Seccion Compacta", "Sección NO Compacta")</f>
+        <v>Seccion Compacta</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="73">
+        <f>L14</f>
+        <v>40</v>
+      </c>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="73">
+        <f>N14</f>
+        <v>40</v>
+      </c>
+      <c r="G37" s="95"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="24">
+        <f>ROUND(F8/E20,2)</f>
+        <v>22.55</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="24">
+        <f>ROUND(F9/E21,2)</f>
+        <v>38.5</v>
+      </c>
+      <c r="G38" s="95"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="73">
+        <f>ROUND(SQRT(E16^2+(B37/2)^2),2)</f>
+        <v>40.36</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="73">
+        <f>ROUND(SQRT(E15^2+(F37/2)^2),2)</f>
+        <v>28.33</v>
+      </c>
+      <c r="G39" s="95"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="24">
+        <f>ROUND(PI()*SQRT((2*E17*B39^3)/(2*B25*B37*E16^2)),2)</f>
+        <v>12.63</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="24">
+        <f>ROUND(PI()*SQRT((2*E17*F39^3)/(2*B25*F37*E15^2)),2)</f>
+        <v>12.98</v>
+      </c>
+      <c r="G40" s="95"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="24">
+        <f>ROUND(SQRT(B38^2+B40^2),2)</f>
+        <v>25.85</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="24">
+        <f>ROUND(SQRT(F38^2+F40^2),2)</f>
+        <v>40.630000000000003</v>
+      </c>
+      <c r="G41" s="95"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="93">
+        <f>ROUND(B37/B20,2)</f>
+        <v>23.67</v>
+      </c>
+      <c r="C42" s="90" t="str">
+        <f>IF(B42&lt;B41,"&lt;   λm","&gt;   λm")</f>
+        <v>&lt;   λm</v>
+      </c>
+      <c r="D42" s="89" t="str">
+        <f>IF(B42&lt;B41,"Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="93">
+        <f>ROUND(F37/B20,2)</f>
+        <v>23.67</v>
+      </c>
+      <c r="G42" s="90" t="str">
+        <f>IF(F42&lt;F41,"&lt;   λm","&gt;   λm")</f>
+        <v>&lt;   λm</v>
+      </c>
+      <c r="H42" s="89" t="str">
+        <f>IF(F42&lt;F41,"Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="I42" s="95"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="76">
+        <f>ROUND(PI()^2*E26*E17/(B41^2*10),2)</f>
+        <v>16034.24</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="76">
+        <f>ROUND(PI()^2*E26*E17/(F41^2*10),2)</f>
+        <v>6490.47</v>
+      </c>
+      <c r="G43" s="95"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="73">
+        <f>F8/500</f>
+        <v>0.8</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="73">
+        <f>F9/500</f>
+        <v>0.8</v>
+      </c>
+      <c r="G44" s="95"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="77">
+        <f>ROUND((D3*B44/100+F3)/(1-D3/B43),2)</f>
+        <v>54.56</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="77">
+        <f>ROUND((D3*F44/100+H3)/(1-D3/F43),2)</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="G45" s="95"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="81">
+        <f>ROUND(D3/4+B45*100/(2*E16)+F45*100/(2*E15),2)</f>
+        <v>265.99</v>
+      </c>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="24">
+        <f>MIN(B37,F37)</f>
+        <v>40</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="24">
+        <f>ROUND(B50/(PI()*B20)*SQRT(E24/E26),3)</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="78">
+        <f>ROUND(IF(B51&lt;=1.5,E24*0.658^(B51^2),E24*0.877/B51^2),2)</f>
+        <v>228.54</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="81">
+        <f>ROUND(B49*B52*B14*0.1,2)</f>
+        <v>263.61</v>
+      </c>
+      <c r="C53" s="92" t="str">
+        <f>IF(B53&gt;E53,"&gt;","&lt;")</f>
+        <v>&gt;</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="89" t="str">
+        <f>IF(B53&gt;E53,"Verifica"," No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="G53" s="95"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="24">
+        <f>ROUND((PI()/400)*(1/(1-D3/B43)),4)</f>
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="24">
+        <f>ROUND((PI()/400)*(1/(1-D3/F43)),4)</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G55" s="95"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="76">
+        <f>ROUND(B55*D3+F4,2)</f>
+        <v>103.24</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" s="76">
+        <f>ROUND(F55*D3+H4,2)</f>
+        <v>43.36</v>
+      </c>
+      <c r="G56" s="95"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="81">
+        <f>ROUND(B56/2*B39/E16,2)</f>
+        <v>59.42</v>
+      </c>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="81">
+        <f>ROUND(F56/2*F39/E15,2)</f>
+        <v>30.62</v>
+      </c>
+      <c r="G57" s="95"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="95"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G59" s="95"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="79">
+        <f>L15</f>
+        <v>1.3</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="79">
+        <f>O15</f>
+        <v>1.3</v>
+      </c>
+      <c r="G60" s="95"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="24">
+        <f>ROUND(B39*B60/B28,2)</f>
+        <v>72.87</v>
+      </c>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="24">
+        <f>ROUND(F39*F60/B28,2)</f>
+        <v>51.15</v>
+      </c>
+      <c r="G61" s="95"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="24">
+        <f>ROUND(B61/PI()*SQRT(E24/E26),3)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="24">
+        <f>ROUND(F61/PI()*SQRT(E24/E26),3)</f>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="G62" s="95"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="78">
+        <f>ROUND(IF(B62&lt;=1.5,E24*0.658^(B62^2),E24*0.877/B62^2),2)</f>
+        <v>180.38</v>
+      </c>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="78">
+        <f>ROUND(IF(F62&lt;=1.5,E24*0.658^(F62^2),E24*0.877/F62^2),2)</f>
+        <v>206.29</v>
+      </c>
+      <c r="G63" s="95"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="81">
+        <f>ROUND(B59*B63*B25*0.1,2)</f>
+        <v>68.84</v>
+      </c>
+      <c r="C64" s="90" t="str">
+        <f>IF(B64&gt;B57,"&gt;   Dux","&lt;   Duy")</f>
+        <v>&gt;   Dux</v>
+      </c>
+      <c r="D64" s="89" t="str">
+        <f>IF(B57&lt;B64,"Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="81">
+        <f>ROUND(F59*F63*B25*0.1,2)</f>
+        <v>78.73</v>
+      </c>
+      <c r="G64" s="90" t="str">
+        <f>IF(F64&gt;F57,"&gt;   Dux","&lt;   Duy")</f>
+        <v>&gt;   Dux</v>
+      </c>
+      <c r="H64" s="103" t="str">
+        <f>IF(B57&lt;B64,"Verifica","No Verifica")</f>
+        <v>Verifica</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="95"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="81">
+        <f>ROUND(D5/4+F5*100/(2*E16)+H5*100/(2*E15),2)</f>
+        <v>249.76</v>
+      </c>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="95"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="81">
+        <f>ROUND(B68*B14*E24*0.1,2)</f>
+        <v>287.01</v>
+      </c>
+      <c r="C69" s="90" t="str">
+        <f>IF(B69&gt;B67,"&gt;","&lt;")</f>
+        <v>&gt;</v>
+      </c>
+      <c r="D69" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="95"/>
+      <c r="F69" s="89" t="str">
+        <f>IF(B69&gt;B67,"Verfica","No Verifica")</f>
+        <v>Verfica</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J69" s="18"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="95"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="95"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="95"/>
+      <c r="H70" s="95"/>
+      <c r="I70" s="95"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="95"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="95"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="26"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H37:I37"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P17:P22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="53" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8CDB6DC-C313-4AD3-B9E9-8D364C1341E7}">
+          <x14:formula1>
+            <xm:f>Angulares!$A$5:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>N11:N12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:R4"/>
     </sheetView>
   </sheetViews>
@@ -2191,35 +3974,35 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="O1" s="33"/>
+      <c r="P1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="62"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2285,35 +4068,35 @@
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -2373,7 +4156,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9">
         <v>12.7</v>
@@ -2433,7 +4216,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B6" s="12">
         <v>15.9</v>
@@ -2493,7 +4276,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9">
         <v>19.100000000000001</v>
@@ -2553,7 +4336,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12">
         <v>22.2</v>
@@ -2613,7 +4396,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B9" s="9">
         <v>25.4</v>
@@ -2673,7 +4456,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9">
         <v>31.8</v>
@@ -2733,7 +4516,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B11" s="12">
         <v>25.4</v>
@@ -2793,7 +4576,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B12" s="9">
         <v>38.1</v>
@@ -2853,7 +4636,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="B13" s="12">
         <v>31.8</v>
@@ -2913,7 +4696,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12">
         <v>38.1</v>
@@ -2973,7 +4756,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B15" s="9">
         <v>44.5</v>
@@ -3033,7 +4816,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9">
         <v>38.1</v>
@@ -3093,7 +4876,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12">
         <v>50.8</v>
@@ -3153,7 +4936,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="B18" s="12">
         <v>57.2</v>
@@ -3213,7 +4996,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B19" s="12">
         <v>44.5</v>
@@ -3273,7 +5056,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9">
         <v>50.8</v>
@@ -3333,7 +5116,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="B21" s="9">
         <v>57.2</v>
@@ -3393,7 +5176,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B22" s="9">
         <v>63.5</v>
@@ -3453,7 +5236,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B23" s="12">
         <v>76.2</v>
@@ -3513,7 +5296,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B24" s="9">
         <v>76.2</v>
@@ -3573,7 +5356,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B25" s="9">
         <v>88.9</v>
@@ -3633,7 +5416,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B26" s="12">
         <v>76.2</v>
@@ -3693,7 +5476,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="B27" s="9">
         <v>101.6</v>
@@ -3753,7 +5536,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B28" s="12">
         <v>88.9</v>
@@ -3813,7 +5596,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B29" s="12">
         <v>101.6</v>
@@ -3873,7 +5656,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B30" s="15">
         <v>101.6</v>
@@ -3936,2014 +5719,28 @@
     <sortCondition ref="G5"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:R3"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:R30">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>ROW()=CELL("fila")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>13.127</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A3E0BA-E691-4DB6-A97E-DB5353F080DD}">
-  <dimension ref="A1:M113"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="83"/>
-      <c r="I3" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="82"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="21">
-        <v>600</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="18">
-        <v>50</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="18">
-        <v>30</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="19">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="19">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="21">
-        <v>800</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="18">
-        <v>5.21</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="18">
-        <v>3</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="19">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="83"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="21">
-        <v>400</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="30">
-        <f>+D9*B9</f>
-        <v>400</v>
-      </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="21">
-        <v>400</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="30">
-        <f>+D10*B10</f>
-        <v>400</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="H13" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="21">
-        <v>15</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89"/>
-      <c r="M14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="25">
-        <f>VLOOKUP($A$14,db,6,)</f>
-        <v>9.43</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="21">
-        <v>15</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="25">
-        <f>VLOOKUP($H$14,db,6,)</f>
-        <v>9.43</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="25">
-        <f>VLOOKUP($A$14,db,2,)</f>
-        <v>76.2</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16">
-        <f>E14-2*B20</f>
-        <v>10.82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="25">
-        <f>VLOOKUP($H$14,db,2,)</f>
-        <v>76.2</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="25">
-        <f>VLOOKUP($A$14,db,3,)</f>
-        <v>6.4</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="59">
-        <f>E15-2*B20</f>
-        <v>10.82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="25">
-        <f>VLOOKUP($H$14,db,3,)</f>
-        <v>6.4</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="25">
-        <f>VLOOKUP($A$14,db,11,)</f>
-        <v>50.39</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34">
-        <f>4*B15</f>
-        <v>37.72</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="25">
-        <f>VLOOKUP($H$14,db,18,)</f>
-        <v>1.44</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="25">
-        <f>VLOOKUP($A$14,db,16,)</f>
-        <v>2.31</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="36">
-        <f>ROUND(4*(B18+B15*(E17/2)^2),2)</f>
-        <v>1305.55</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="25">
-        <f>VLOOKUP($A$14,db,8,)</f>
-        <v>2.09</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="27">
-        <f>ROUND(SQRT(E19/E18),2)</f>
-        <v>5.88</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="25">
-        <f>VLOOKUP($A$14,db,18,)</f>
-        <v>1.44</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="27">
-        <f>ROUND(4*(B18+B15*(E16/2)^2),2)</f>
-        <v>1305.55</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="40">
-        <f>+ROUND((E21/E18)^(1/2),2)</f>
-        <v>5.88</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="37">
-        <f>+B16/B17</f>
-        <v>11.90625</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="37">
-        <f>+I16/I17</f>
-        <v>11.90625</v>
-      </c>
-      <c r="J26" s="66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="19">
-        <v>13.13</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="19">
-        <v>13.13</v>
-      </c>
-      <c r="J27" s="66"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="str">
-        <f>+IF(B26&lt;B27, "Seccion Compacta", "Sección NO Compacta")</f>
-        <v>Seccion Compacta</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="67" t="str">
-        <f>+IF(I26&lt;I27, "Seccion Compacta", "Sección NO Compacta")</f>
-        <v>Seccion Compacta</v>
-      </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="21">
-        <v>40</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="21">
-        <v>40</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="19">
-        <f>ROUND(F9/E20,2)</f>
-        <v>68.03</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="19">
-        <f>ROUND(F10/E22,2)</f>
-        <v>68.03</v>
-      </c>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B34" s="19">
-        <f>ROUND(SQRT(E17^2+(B32/2)^2),2)</f>
-        <v>22.74</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="19">
-        <f>ROUND(SQRT(E16^2+(G32/2)^2),2)</f>
-        <v>22.74</v>
-      </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="19">
-        <f>ROUND(PI()*SQRT((2*E18*B34^3)/(2*I15*B32*E17^2)),2)</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" s="19">
-        <f>ROUND(PI()*SQRT((2*E18*G34^3)/(2*I15*G32*E16^2)),2)</f>
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="45"/>
-      <c r="K35" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="19">
-        <f>ROUND(SQRT(B33^2+B35^2),2)</f>
-        <v>68.760000000000005</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="19">
-        <f>ROUND(SQRT(G33^2+G35^2),2)</f>
-        <v>68.760000000000005</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="60">
-        <f>ROUND(B32/B21,2)</f>
-        <v>27.78</v>
-      </c>
-      <c r="C37" s="60" t="str">
-        <f>IF(B37&lt;B36,"&lt;","&gt;")</f>
-        <v>&lt;</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="45" t="str">
-        <f>IF(B37&lt;B36,"Verifica","No Verifica")</f>
-        <v>Verifica</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G37" s="60">
-        <f>ROUND(G32/B21,2)</f>
-        <v>27.78</v>
-      </c>
-      <c r="H37" s="60" t="str">
-        <f>IF(G37&lt;G36,"&lt;","&gt;")</f>
-        <v>&lt;</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="45" t="str">
-        <f>IF(G37&lt;G36,"Verifica","No Verifica")</f>
-        <v>Verifica</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="19">
-        <f>ROUND(PI()^2*J6*E18/(B36^2*10),2)</f>
-        <v>1574.82</v>
-      </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="19">
-        <f>ROUND(PI()^2*J6*E18/(G36^2*10),2)</f>
-        <v>1574.82</v>
-      </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="45"/>
-      <c r="K38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="19">
-        <f>F9/500</f>
-        <v>0.8</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="19">
-        <f>F10/500</f>
-        <v>0.8</v>
-      </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="19">
-        <f>ROUND((B4*B39/100+E4)/(1-B4/B38),2)</f>
-        <v>88.53</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="19">
-        <f>ROUND((B4*G39/100+G4)/(1-B4/G38),2)</f>
-        <v>56.22</v>
-      </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="45"/>
-      <c r="K40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="45"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="41">
-        <f>ROUND(B4/4+B40*100/(2*E17)+G40*100/(2*E16),2)</f>
-        <v>818.9</v>
-      </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="45"/>
-      <c r="K42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="19">
-        <f>MIN(B32,G32)</f>
-        <v>40</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="19">
-        <f>ROUND(B46/(PI()*B21)*SQRT(J4/J6),3)</f>
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="19">
-        <f>ROUND(IF(B47&lt;=1.5,J4*0.658^(B47^2),J4*0.877/B47^2),2)</f>
-        <v>226.14</v>
-      </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="19">
-        <f>ROUND(B45*B48*B15*0.1,2)</f>
-        <v>181.26</v>
-      </c>
-      <c r="C49" s="46" t="str">
-        <f>IF(B49&gt;E49,"&gt;","&lt;")</f>
-        <v>&lt;</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" s="45">
-        <f>B42</f>
-        <v>818.9</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18" t="str">
-        <f>IF(B49&gt;E49,"Verifica"," No Verifica")</f>
-        <v xml:space="preserve"> No Verifica</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="19">
-        <f>ROUND((PI()/400)*(1/(1-B4/B38)),4)</f>
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="18">
-        <f>ROUND((PI()/400)*(1/(1-B4/G38)),4)</f>
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="19">
-        <f>ROUND(B52*B4+E5,2)</f>
-        <v>107.62</v>
-      </c>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="18">
-        <f>ROUND(G52*B4+G5,2)</f>
-        <v>47.62</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="19">
-        <f>ROUND(B53/2*B34/E17,2)</f>
-        <v>113.09</v>
-      </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="18">
-        <f>ROUND(G53/2*G34/E16,2)</f>
-        <v>50.04</v>
-      </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="45"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="19">
-        <v>0.85</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="G56" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="F57" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="23">
-        <v>1.3</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="19">
-        <f>ROUND(B34*B57/I18,2)</f>
-        <v>20.53</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="18">
-        <f>ROUND(G34*G57/I18,2)</f>
-        <v>20.53</v>
-      </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="19">
-        <f>ROUND(B58/PI()*SQRT(J4/J6),3)</f>
-        <v>0.224</v>
-      </c>
-      <c r="C59" s="46" t="str">
-        <f>IF(B59&gt;=0.8,"k=1 Verifica","k=1,3 Verifica")</f>
-        <v>k=1,3 Verifica</v>
-      </c>
-      <c r="D59" s="46"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="18">
-        <f>ROUND(G58/PI()*SQRT(J4/J6),3)</f>
-        <v>0.224</v>
-      </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B60" s="19">
-        <f>ROUND(IF(B59&lt;=1.5,J4*0.658^(B59^2),J4*0.877/B59^2),2)</f>
-        <v>230.12</v>
-      </c>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="G60">
-        <f>ROUND(IF(G59&lt;=1.5,J4*0.658^(G59^2),J4*0.877/G59^2),2)</f>
-        <v>230.12</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="19">
-        <f>ROUND(B56*B60*I15*0.1,2)</f>
-        <v>184.45</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" s="18">
-        <f>ROUND(G56*G60*I15*0.1,2)</f>
-        <v>184.45</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="69"/>
-      <c r="I65" s="69"/>
-      <c r="J65" s="69"/>
-    </row>
-    <row r="66" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66">
-        <f>ROUND(B6/4+E6*100/(2*E17)+G6*100/(2*E16),2)</f>
-        <v>237.94</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67">
-        <v>0.9</v>
-      </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68">
-        <f>ROUND(B67*B15*J4*0.1,2)</f>
-        <v>199.44</v>
-      </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="37">
-        <v>0.9</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="19">
-        <f>+J4*E18*10^-1</f>
-        <v>886.42</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="37">
-        <f>+B72*B71</f>
-        <v>797.77800000000002</v>
-      </c>
-      <c r="C73" s="19" t="str">
-        <f>+IF(B73&lt;D73, "&lt;", "&gt;")</f>
-        <v>&lt;</v>
-      </c>
-      <c r="D73" s="19">
-        <f>+B6</f>
-        <v>800</v>
-      </c>
-      <c r="E73" s="38" t="str">
-        <f>+IF(C73="&gt;", "Verifica", "No Verifica")</f>
-        <v>No Verifica</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B84" s="19">
-        <v>480</v>
-      </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84" s="73"/>
-      <c r="H84" s="74">
-        <v>101.6</v>
-      </c>
-      <c r="I84" s="75"/>
-      <c r="J84" s="43"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="37">
-        <f>0.02*0.85*B74</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="66"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="37" t="e">
-        <f>+ROUND(B85*(B32/#REF!), 2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="47">
-        <v>5</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="49">
-        <f>+MIN(((H84-B16*10)/2), B17*10)</f>
-        <v>-330.2</v>
-      </c>
-      <c r="C88" s="46"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="50">
-        <v>6</v>
-      </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="49" t="e">
-        <f>+IF((MAX(B17,#REF!)*10)&lt;6, (MAX(B17,#REF!)*10), (MAX(B17,#REF!)*10)-2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="51">
-        <f>4*B89</f>
-        <v>24</v>
-      </c>
-      <c r="C91" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B92" s="51">
-        <f>+ROUND(B89/(2^(1/2)),2)</f>
-        <v>4.24</v>
-      </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B93" s="53">
-        <f>+(B92*B91)</f>
-        <v>101.76</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="19">
-        <f>0.6*B84</f>
-        <v>288</v>
-      </c>
-      <c r="C94" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D94" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="68"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="55" t="e">
-        <f>+ROUND(((B86)/(B83*B94*(B92/10)*10^-1)),2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C95" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" s="55" t="e">
-        <f>+B95/C96</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C96" s="56">
-        <v>4</v>
-      </c>
-      <c r="D96" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="E96" s="71"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="33">
-        <v>6</v>
-      </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="33">
-        <f>B83*B94*B98*B92*0.1*0.1</f>
-        <v>43.960320000000003</v>
-      </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20" t="e">
-        <f>B86/4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
-      <c r="H102" s="69"/>
-      <c r="I102" s="69"/>
-      <c r="J102" s="69"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="33">
-        <v>0.9</v>
-      </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="33">
-        <f>ROUND(1.5*E23*J4*10^(-3),2)</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B105" s="33">
-        <f>ROUND(B103*B104,2)</f>
-        <v>0</v>
-      </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B108" s="33">
-        <f>B6/B73</f>
-        <v>1.0027852359929705</v>
-      </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
-      <c r="B109" s="33" t="e">
-        <f>ROUND(B108+8*E6/(9*B105),2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B112" s="33" t="e">
-        <f>B4/MIN(B75,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
-      <c r="B113" s="33" t="e">
-        <f>ROUND(B112+8*E4/(9*B105),2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A25:C25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8CDB6DC-C313-4AD3-B9E9-8D364C1341E7}">
-          <x14:formula1>
-            <xm:f>Angulares!$A$5:$A$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>A14:C14 H14:J14 M14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>